--- a/posesiones/1486009.xlsx
+++ b/posesiones/1486009.xlsx
@@ -1910,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>18</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>16</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>7</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>23</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>14</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>9</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>11</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>16</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>8</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>14</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>7</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R47">
         <v>5</v>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R48">
         <v>11</v>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R49">
         <v>18</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R51">
         <v>5</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>15</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R62">
         <v>12</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>17</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R64">
         <v>15</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R70">
         <v>11</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R72">
         <v>6</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R74">
         <v>17</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R79">
         <v>9</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R81">
         <v>8</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R83">
         <v>18</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>26</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R93">
         <v>23</v>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R94">
         <v>22</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R98">
         <v>27</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R99">
         <v>12</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R103">
         <v>23</v>
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R104">
         <v>20</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R109">
         <v>10</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R112">
         <v>5</v>
@@ -7401,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7445,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7498,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R115">
         <v>13</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R118">
         <v>7</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R121">
         <v>19</v>
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R122">
         <v>21</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R124">
         <v>16</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R127">
         <v>8</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R133">
         <v>17</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8492,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R135">
         <v>5</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R139">
         <v>14</v>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R140">
         <v>17</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R142">
         <v>29</v>
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R144">
         <v>13</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R146">
         <v>9</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9148,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R148">
         <v>4</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9345,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R152">
         <v>18</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R158">
         <v>10</v>
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R164">
         <v>9</v>
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R165">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R166">
         <v>11</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R168">
         <v>9</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R170">
         <v>11</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R172">
         <v>18</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R176">
         <v>14</v>
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R184">
         <v>23</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11153,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R189">
         <v>5</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R195">
         <v>62</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11544,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R197">
         <v>20</v>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11738,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R201">
         <v>27</v>
@@ -11791,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R202">
         <v>22</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11941,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R205">
         <v>10</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12273,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R212">
         <v>16</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R218">
         <v>10</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R219">
         <v>10</v>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R221">
         <v>5</v>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12814,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R223">
         <v>22</v>
@@ -12867,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R224">
         <v>24</v>
@@ -12920,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12970,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R226">
         <v>9</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R229">
         <v>7</v>
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13264,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R233">
         <v>15</v>
@@ -13364,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R235">
         <v>16</v>
@@ -13470,7 +13470,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -13514,10 +13514,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13564,7 +13564,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13840,10 +13840,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R245">
         <v>16</v>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R247">
         <v>26</v>
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14096,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R249">
         <v>9</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14199,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R251">
         <v>16</v>
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R253">
         <v>17</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R255">
         <v>18</v>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R257">
         <v>19</v>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14608,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R259">
         <v>11</v>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R261">
         <v>8</v>
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R266">
         <v>11</v>
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15149,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R270">
         <v>20</v>
@@ -15202,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R271">
         <v>21</v>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R273">
         <v>8</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R275">
         <v>5</v>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R277">
         <v>17</v>
@@ -15558,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R278">
         <v>17</v>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R280">
         <v>17</v>
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R288">
         <v>18</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R291">
         <v>13</v>
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16287,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R293">
         <v>16</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16434,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R296">
         <v>18</v>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16578,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16628,7 +16628,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R300">
         <v>0</v>
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16866,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16916,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R310">
         <v>14</v>
@@ -17160,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R311">
         <v>18</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17260,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17360,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R315">
         <v>23</v>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17460,7 +17460,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R317">
         <v>19</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17560,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R319">
         <v>21</v>
@@ -17613,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R320">
         <v>14</v>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17854,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17901,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17995,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R329">
         <v>6</v>
@@ -18098,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R330">
         <v>23</v>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18292,7 +18292,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R334">
         <v>16</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18439,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R337">
         <v>17</v>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18536,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18583,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18680,7 +18680,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R342">
         <v>14</v>
@@ -18733,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R343">
         <v>10</v>
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R344">
         <v>25</v>
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R346">
         <v>7</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18992,7 +18992,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R348">
         <v>8</v>
@@ -19045,7 +19045,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19095,7 +19095,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R350">
         <v>8</v>
@@ -19145,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19239,7 +19239,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R355">
         <v>0</v>
@@ -19389,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R356">
         <v>26</v>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R358">
         <v>5</v>
@@ -19542,7 +19542,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R359">
         <v>0</v>
@@ -19586,10 +19586,10 @@
         <v>1</v>
       </c>
       <c r="P360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19636,7 +19636,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19777,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19824,7 +19824,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19912,10 +19912,10 @@
         <v>1</v>
       </c>
       <c r="P367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R368">
         <v>12</v>
@@ -20015,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20065,7 +20065,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R370">
         <v>25</v>
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20162,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20209,7 +20209,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20256,7 +20256,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R376">
         <v>32</v>
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20503,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20550,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20647,7 +20647,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R382">
         <v>48</v>
@@ -20700,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20750,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R384">
         <v>13</v>
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20894,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R389">
         <v>24</v>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R390">
         <v>13</v>
@@ -21097,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21194,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21288,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21338,7 +21338,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R396">
         <v>32</v>
@@ -21391,7 +21391,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21441,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R398">
         <v>5</v>
@@ -21491,7 +21491,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21535,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R405">
         <v>15</v>
@@ -21823,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21964,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22014,7 +22014,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R410">
         <v>14</v>
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R416">
         <v>28</v>
@@ -22358,7 +22358,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22408,7 +22408,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R418">
         <v>13</v>
@@ -22461,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22511,7 +22511,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R420">
         <v>10</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22605,7 +22605,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22655,7 +22655,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R423">
         <v>24</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R425">
         <v>24</v>
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22861,7 +22861,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R427">
         <v>7</v>
@@ -22911,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22958,7 +22958,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23055,7 +23055,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R431">
         <v>28</v>
@@ -23105,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23202,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R434">
         <v>10</v>
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23349,7 +23349,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R437">
         <v>21</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23452,7 +23452,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23552,7 +23552,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R441">
         <v>20</v>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23655,7 +23655,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R443">
         <v>8</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23802,7 +23802,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R446">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23905,7 +23905,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R448">
         <v>3</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24052,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R452">
         <v>16</v>
@@ -24158,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24208,7 +24208,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R454">
         <v>6</v>
@@ -24261,7 +24261,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R455">
         <v>23</v>
@@ -24308,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24355,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24402,7 +24402,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24452,7 +24452,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R459">
         <v>13</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24555,7 +24555,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R461">
         <v>3</v>
@@ -24605,7 +24605,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24702,7 +24702,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R464">
         <v>0</v>
@@ -24755,7 +24755,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R466">
         <v>14</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24952,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25052,7 +25052,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R471">
         <v>13</v>
@@ -25105,7 +25105,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R472">
         <v>11</v>
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25249,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R477">
         <v>18</v>
@@ -25402,7 +25402,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R478">
         <v>15</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25502,7 +25502,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R480">
         <v>2</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25602,7 +25602,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R482">
         <v>6</v>
@@ -25652,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25793,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25843,7 +25843,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R487">
         <v>0</v>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R488">
         <v>8</v>
@@ -25949,7 +25949,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R489">
         <v>0</v>
@@ -25993,10 +25993,10 @@
         <v>1</v>
       </c>
       <c r="P490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q490">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
